--- a/aqi us data recap 07 12 2023.xlsx
+++ b/aqi us data recap 07 12 2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aldi Andalan\Documents\revou\polution-daily-backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6A0E1F6-793F-4907-A6E5-746E43CEEE6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655CAF26-0B1C-4C4D-A43B-C30566D55491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{8A0724AA-3800-447E-BE7E-7C1081E679CD}"/>
+    <workbookView xWindow="-12" yWindow="0" windowWidth="12150" windowHeight="11760" firstSheet="1" activeTab="1" xr2:uid="{8A0724AA-3800-447E-BE7E-7C1081E679CD}"/>
   </bookViews>
   <sheets>
     <sheet name="City State Country for URL" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="230">
   <si>
     <t>// City State Country Timestamp(ts) AQIUS(aqius)</t>
   </si>
@@ -197,9 +197,6 @@
     <t>Semarang</t>
   </si>
   <si>
-    <t>SouthTangerang</t>
-  </si>
-  <si>
     <t>Banten</t>
   </si>
   <si>
@@ -209,9 +206,6 @@
     <t>Banjarbaru</t>
   </si>
   <si>
-    <t>CityofBalikpapan</t>
-  </si>
-  <si>
     <t>Samarinda</t>
   </si>
   <si>
@@ -336,6 +330,393 @@
   </si>
   <si>
     <t>East Kalimantan</t>
+  </si>
+  <si>
+    <t>Coordinates</t>
+  </si>
+  <si>
+    <t>[ 107.60694, -6.92222 ]</t>
+  </si>
+  <si>
+    <t>Timestamp (ts): 2023-12-07T21:00:00.000Z</t>
+  </si>
+  <si>
+    <t>AQI US (aqius): 124</t>
+  </si>
+  <si>
+    <t>[ 106.81861, -6.4 ]</t>
+  </si>
+  <si>
+    <t>AQI US (aqius): 74</t>
+  </si>
+  <si>
+    <t>[ 106.913972, -6.388776 ]</t>
+  </si>
+  <si>
+    <t>AQI US (aqius): 131</t>
+  </si>
+  <si>
+    <t>[ 106.80603880000001, -6.597146899999999 ]</t>
+  </si>
+  <si>
+    <t>AQI US (aqius): 68</t>
+  </si>
+  <si>
+    <t>[ 112.7946058, -7.2800904 ]</t>
+  </si>
+  <si>
+    <t>AQI US (aqius): 132</t>
+  </si>
+  <si>
+    <t>[ 98.6722227, 3.5951956 ]</t>
+  </si>
+  <si>
+    <t>AQI US (aqius): 153</t>
+  </si>
+  <si>
+    <t>Timestamp (ts): 2023-12-07T22:00:00.000Z</t>
+  </si>
+  <si>
+    <t>AQI US (aqius): 91</t>
+  </si>
+  <si>
+    <t>[ 106.79324, -6.236704 ]</t>
+  </si>
+  <si>
+    <t>[ 110.35556, -7.71556 ]</t>
+  </si>
+  <si>
+    <t>AQI US (aqius): 73</t>
+  </si>
+  <si>
+    <t>[ 115.19754, -8.663225 ]</t>
+  </si>
+  <si>
+    <t>AQI US (aqius): 55</t>
+  </si>
+  <si>
+    <t>[ 115.243533, -8.505905 ]</t>
+  </si>
+  <si>
+    <t>AQI US (aqius): 54</t>
+  </si>
+  <si>
+    <t>[ 115.213997, -8.566655 ]</t>
+  </si>
+  <si>
+    <t>AQI US (aqius): 49</t>
+  </si>
+  <si>
+    <t>[ 119.43194, -5.14861 ]</t>
+  </si>
+  <si>
+    <t>AQI US (aqius): 16</t>
+  </si>
+  <si>
+    <t>[ 104.7754307, -2.9760735 ]</t>
+  </si>
+  <si>
+    <t>AQI US (aqius): 56</t>
+  </si>
+  <si>
+    <t>[ 114.8103181, -3.4572422 ]</t>
+  </si>
+  <si>
+    <t>[ 117.1436154, -0.4948232 ]</t>
+  </si>
+  <si>
+    <t>Timestamp (ts): 2023-12-07T20:00:00.000Z</t>
+  </si>
+  <si>
+    <t>AQI US (aqius): 12</t>
+  </si>
+  <si>
+    <t>City of Balikpapan</t>
+  </si>
+  <si>
+    <t>South Tangerang</t>
+  </si>
+  <si>
+    <t>[ 116.89419, -1.24204 ]</t>
+  </si>
+  <si>
+    <t>AQI US (aqius): 27</t>
+  </si>
+  <si>
+    <t>[ 109.344387, -0.04046 ]</t>
+  </si>
+  <si>
+    <t>AQI US (aqius): 21</t>
+  </si>
+  <si>
+    <t>[ 116.11667, -8.58333 ]</t>
+  </si>
+  <si>
+    <t>Timestamp (ts): 2023-12-07T19:00:00.000Z</t>
+  </si>
+  <si>
+    <t>AQI US (aqius): 51</t>
+  </si>
+  <si>
+    <t>[ 123.60694, -10.17083 ]</t>
+  </si>
+  <si>
+    <t>AQI US (aqius): 41</t>
+  </si>
+  <si>
+    <t>[ 104.05292069999996, 1.1300779 ]</t>
+  </si>
+  <si>
+    <t>AQI US (aqius): 63</t>
+  </si>
+  <si>
+    <t>[ 101.4477793, 0.5070677 ]</t>
+  </si>
+  <si>
+    <t>AQI US (aqius): 45</t>
+  </si>
+  <si>
+    <t>[ 106.71789, -6.28862 ]</t>
+  </si>
+  <si>
+    <t>AQI US (aqius): 164</t>
+  </si>
+  <si>
+    <t>[ 106.15417, -6.11528 ]</t>
+  </si>
+  <si>
+    <t>AQI US (aqius): 37</t>
+  </si>
+  <si>
+    <t>[ 110.42083, -6.99306 ]</t>
+  </si>
+  <si>
+    <t>AQI US (aqius): 88</t>
+  </si>
+  <si>
+    <t>Malang</t>
+  </si>
+  <si>
+    <t>[ 112.6304, -7.9797 ]</t>
+  </si>
+  <si>
+    <t>Buleleng</t>
+  </si>
+  <si>
+    <t>[ 114.851048, -8.200728 ]</t>
+  </si>
+  <si>
+    <t>[ 106.63, -6.17806 ]</t>
+  </si>
+  <si>
+    <t>Tangerang</t>
+  </si>
+  <si>
+    <t>AQI US (aqius): 108</t>
+  </si>
+  <si>
+    <t>Kendari</t>
+  </si>
+  <si>
+    <t>Southeast Sulawesi</t>
+  </si>
+  <si>
+    <t>[ 122.51507, -3.9778 ]</t>
+  </si>
+  <si>
+    <t>AQI US (aqius): 59</t>
+  </si>
+  <si>
+    <t>Ambon</t>
+  </si>
+  <si>
+    <t>Maluku</t>
+  </si>
+  <si>
+    <t>[ 128.18333, -3.69583 ]</t>
+  </si>
+  <si>
+    <t>AQI US (aqius): 28</t>
+  </si>
+  <si>
+    <t>[ 131.26104, -0.87956 ]</t>
+  </si>
+  <si>
+    <t>Sorong</t>
+  </si>
+  <si>
+    <t>West Papua</t>
+  </si>
+  <si>
+    <t>AQI US (aqius): 52</t>
+  </si>
+  <si>
+    <t>Manokwari</t>
+  </si>
+  <si>
+    <t>[ 134.06402, -0.86291 ]</t>
+  </si>
+  <si>
+    <t>AQI US (aqius): 57</t>
+  </si>
+  <si>
+    <t>Jayapura</t>
+  </si>
+  <si>
+    <t>Papua</t>
+  </si>
+  <si>
+    <t>[ 140.71813, -2.53371 ]</t>
+  </si>
+  <si>
+    <t>[ 101.44316, 1.66711 ]</t>
+  </si>
+  <si>
+    <t>Dumai</t>
+  </si>
+  <si>
+    <t>[ 127.36667, 0.78333 ]</t>
+  </si>
+  <si>
+    <t>AQI US (aqius): 24</t>
+  </si>
+  <si>
+    <t>[ 95.33333, 5.54167 ]</t>
+  </si>
+  <si>
+    <t>Aceh</t>
+  </si>
+  <si>
+    <t>Banda Aceh</t>
+  </si>
+  <si>
+    <t>AQI US (aqius): 35</t>
+  </si>
+  <si>
+    <t>[ 104.45833, 0.91667 ]</t>
+  </si>
+  <si>
+    <t>Tanjung Pinang</t>
+  </si>
+  <si>
+    <t>AQI US (aqius): 25</t>
+  </si>
+  <si>
+    <t>Coordinates:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// Malang East Java Indonesia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">// Buleleng Bali Indonesia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">// Tangerang Banten Indonesia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">// Kendari Southeast Sulawesi Indonesia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">// Ambon Maluku Indonesia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">// Sorong West Papua Indonesia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">// Manokwari West Papua Indonesia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">// Jayapura Papua Indonesia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">// Dumai Riau Indonesia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">// Banda Aceh Aceh Indonesia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">// Tanjung Pinang Riau Islands Indonesia </t>
+  </si>
+  <si>
+    <t>// Malang East Java Indonesia 2023-12-07T21:00:00.000Z 73</t>
+  </si>
+  <si>
+    <t>// Buleleng Bali Indonesia 2023-12-07T22:00:00.000Z 21</t>
+  </si>
+  <si>
+    <t>// Tangerang Banten Indonesia 2023-12-07T22:00:00.000Z 108</t>
+  </si>
+  <si>
+    <t>// Kendari Southeast Sulawesi Indonesia 2023-12-07T21:00:00.000Z 59</t>
+  </si>
+  <si>
+    <t>// Ambon Maluku Indonesia 2023-12-07T20:00:00.000Z 28</t>
+  </si>
+  <si>
+    <t>// Sorong West Papua Indonesia 2023-12-07T22:00:00.000Z 52</t>
+  </si>
+  <si>
+    <t>// Manokwari West Papua Indonesia 2023-12-07T20:00:00.000Z 57</t>
+  </si>
+  <si>
+    <t>// Jayapura Papua Indonesia 2023-12-07T20:00:00.000Z 55</t>
+  </si>
+  <si>
+    <t>// Dumai Riau Indonesia 2023-12-07T22:00:00.000Z 51</t>
+  </si>
+  <si>
+    <t>// Banda Aceh Aceh Indonesia 2023-12-07T22:00:00.000Z 35</t>
+  </si>
+  <si>
+    <t>// Tanjung Pinang Riau Islands Indonesia 2023-12-07T22:00:00.000Z 25</t>
+  </si>
+  <si>
+    <t>NewTimestamp(ts)</t>
+  </si>
+  <si>
+    <t>NewAQIUS(aqius)</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Keterangan</t>
+  </si>
+  <si>
+    <t>Target Utama</t>
+  </si>
+  <si>
+    <t>Tambahan</t>
+  </si>
+  <si>
+    <t>Alternatif</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>lon</t>
+  </si>
+  <si>
+    <t>// Kota Ternate Maluku Indonesia 2023-12-07T20:00:00.000Z 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// Kota Ternate Maluku Indonesia </t>
+  </si>
+  <si>
+    <t>Kota Ternate</t>
+  </si>
+  <si>
+    <t>Timestamp (ts): 2023-12-07T23:00:00.000Z</t>
+  </si>
+  <si>
+    <t>NewTimestamp(ts)2</t>
+  </si>
+  <si>
+    <t>NewAQIUS(aqius)2</t>
   </si>
 </sst>
 </file>
@@ -357,12 +738,30 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -377,9 +776,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -388,6 +794,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF6A9955"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -696,657 +1107,1966 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B76ED35-08A2-4A3D-B581-69274E49260E}">
-  <dimension ref="B2:B26"/>
+  <dimension ref="B2:B38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38" s="2" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23602D85-EE67-4AEF-8112-78B22B43DE7C}">
-  <dimension ref="B2:G26"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.20703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.05078125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.3671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.3671875" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="38.47265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.68359375" customWidth="1"/>
+    <col min="10" max="10" width="10.26171875" customWidth="1"/>
+    <col min="11" max="11" width="35.20703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.83984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5234375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.5234375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.3125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
         <v>26</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D1" t="s">
         <v>27</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E1" t="s">
         <v>28</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F1" t="s">
         <v>29</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="1" t="s">
+      <c r="H1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J1" t="s">
+        <v>223</v>
+      </c>
+      <c r="K1" t="s">
+        <v>214</v>
+      </c>
+      <c r="L1" t="s">
+        <v>215</v>
+      </c>
+      <c r="M1" t="s">
+        <v>218</v>
+      </c>
+      <c r="N1" t="s">
+        <v>228</v>
+      </c>
+      <c r="O1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="3">
+        <v>157</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" s="3">
+        <v>107.60693999999999</v>
+      </c>
+      <c r="J2" s="3">
+        <v>-6.9222200000000003</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="3">
+        <v>152</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3" s="3">
+        <v>112.7946058</v>
+      </c>
+      <c r="J3" s="3">
+        <v>-7.2800903999999997</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G3">
+      <c r="G4" s="3">
+        <v>101</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" s="3">
+        <v>98.672222700000006</v>
+      </c>
+      <c r="J4" s="3">
+        <v>3.5951955999999998</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="3">
+        <v>124</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I5" s="3">
+        <v>106.79324</v>
+      </c>
+      <c r="J5" s="3">
+        <v>-6.2367039999999996</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="3">
+        <v>68</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I6" s="3">
+        <v>110.35556</v>
+      </c>
+      <c r="J6" s="3">
+        <v>-7.71556</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="4">
         <v>157</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="1" t="s">
+      <c r="H7" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I7" s="4">
+        <v>106.81861000000001</v>
+      </c>
+      <c r="J7" s="4">
+        <v>-6.4</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="C8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G4">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="1" t="s">
+      <c r="G8" s="4">
+        <v>85</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I8" s="4">
+        <v>115.19754</v>
+      </c>
+      <c r="J8" s="4">
+        <v>-8.6632250000000006</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="C9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G5">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G9" s="5">
+        <v>130</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I9" s="5">
+        <v>106.913972</v>
+      </c>
+      <c r="J9" s="5">
+        <v>-6.388776</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
       <c r="B10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="C10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="5">
+        <v>16</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="I10" s="5">
+        <v>119.43194</v>
+      </c>
+      <c r="J10" s="5">
+        <v>-5.1486099999999997</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
       <c r="B11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" t="s">
-        <v>94</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="C11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G11">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G11" s="5">
+        <v>45</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="I11" s="5">
+        <v>104.7754307</v>
+      </c>
+      <c r="J11" s="5">
+        <v>-2.9760735</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
       <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" t="s">
-        <v>95</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="C12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="5">
+        <v>65</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="I12" s="5">
+        <v>104.05292069999901</v>
+      </c>
+      <c r="J12" s="5">
+        <v>1.1300779000000001</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
       <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" t="s">
-        <v>96</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="C13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="5">
+        <v>37</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I13" s="5">
+        <v>123.60693999999999</v>
+      </c>
+      <c r="J13" s="5">
+        <v>-10.17083</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
       <c r="B14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" t="s">
-        <v>97</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="C14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="5">
+        <v>29</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="I14" s="5">
+        <v>109.344387</v>
+      </c>
+      <c r="J14" s="5">
+        <v>-4.0460000000000003E-2</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
       <c r="B15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" t="s">
-        <v>98</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="C15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="5">
+        <v>52</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="I15" s="5">
+        <v>116.11667</v>
+      </c>
+      <c r="J15" s="5">
+        <v>-8.5833300000000001</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
       <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" t="s">
-        <v>99</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="C16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F16" t="s">
-        <v>51</v>
-      </c>
-      <c r="G16">
+      <c r="F16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="5">
         <v>52</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H16" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="I16" s="5">
+        <v>101.44777929999999</v>
+      </c>
+      <c r="J16" s="5">
+        <v>0.50706770000000001</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
       <c r="B17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C17" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="5">
         <v>53</v>
       </c>
-      <c r="E17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H17" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I17" s="5">
+        <v>106.8060388</v>
+      </c>
+      <c r="J17" s="5">
+        <v>-6.5971468999999896</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
       <c r="B18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" t="s">
-        <v>91</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="C18" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G18">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G18" s="5">
+        <v>80</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="I18" s="5">
+        <v>110.42083</v>
+      </c>
+      <c r="J18" s="5">
+        <v>-6.9930599999999998</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
       <c r="B19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" t="s">
-        <v>100</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="C19" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G19">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G19" s="5">
+        <v>166</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I19" s="5">
+        <v>106.71789</v>
+      </c>
+      <c r="J19" s="5">
+        <v>-6.2886199999999999</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
       <c r="B20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D20" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="E20" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G20">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G20" s="5">
+        <v>39</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I20" s="5">
+        <v>106.15416999999999</v>
+      </c>
+      <c r="J20" s="5">
+        <v>-6.1152800000000003</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
       <c r="B21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D21" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="D21" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G21">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G21" s="5">
+        <v>53</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="I21" s="5">
+        <v>114.8103181</v>
+      </c>
+      <c r="J21" s="5">
+        <v>-3.4572422</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
       <c r="B22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" t="s">
-        <v>101</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="C22" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G22">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G22" s="5">
+        <v>26</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="I22" s="5">
+        <v>116.89418999999999</v>
+      </c>
+      <c r="J22" s="5">
+        <v>-1.24204</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
       <c r="B23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C23" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" t="s">
-        <v>102</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="C23" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F23" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="5">
+        <v>12</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="I23" s="5">
+        <v>117.1436154</v>
+      </c>
+      <c r="J23" s="5">
+        <v>-0.49482320000000002</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
       <c r="B24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D24" t="s">
-        <v>102</v>
-      </c>
-      <c r="E24" t="s">
-        <v>32</v>
-      </c>
-      <c r="F24" t="s">
-        <v>33</v>
-      </c>
-      <c r="G24">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G24" s="5">
+        <v>47</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="I24" s="5">
+        <v>115.243533</v>
+      </c>
+      <c r="J24" s="5">
+        <v>-8.5059050000000003</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
       <c r="B25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F25" t="s">
-        <v>63</v>
-      </c>
-      <c r="G25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F25" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G25" s="5">
+        <v>67</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="I25" s="5">
+        <v>115.21399700000001</v>
+      </c>
+      <c r="J25" s="5">
+        <v>-8.5666550000000008</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
       <c r="B26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C26" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="C26" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="I26" s="5">
+        <v>112.63039999999999</v>
+      </c>
+      <c r="J26" s="5">
+        <v>-7.9797000000000002</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="O26" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E27" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F26" t="s">
-        <v>63</v>
-      </c>
-      <c r="G26">
-        <v>67</v>
+      <c r="F27" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="I27" s="5">
+        <v>114.85104800000001</v>
+      </c>
+      <c r="J27" s="5">
+        <v>-8.2007279999999998</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="O27" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="5">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="I28" s="5">
+        <v>106.63</v>
+      </c>
+      <c r="J28" s="5">
+        <v>-6.1780600000000003</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="O28" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="5">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="I29" s="5">
+        <v>122.51506999999999</v>
+      </c>
+      <c r="J29" s="5">
+        <v>-3.9777999999999998</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="M29" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="O29" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="5">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="I30" s="5">
+        <v>128.18333000000001</v>
+      </c>
+      <c r="J30" s="5">
+        <v>-3.6958299999999999</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="O30" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="5">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="I31" s="5">
+        <v>131.26104000000001</v>
+      </c>
+      <c r="J31" s="5">
+        <v>-0.87956000000000001</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="M31" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="O31" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="5">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="I32" s="5">
+        <v>134.06402</v>
+      </c>
+      <c r="J32" s="5">
+        <v>-0.86290999999999995</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="M32" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="O32" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="5">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="I33" s="5">
+        <v>140.71813</v>
+      </c>
+      <c r="J33" s="5">
+        <v>-2.5337100000000001</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="M33" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="O33" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="5">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="I34" s="5">
+        <v>101.44316000000001</v>
+      </c>
+      <c r="J34" s="5">
+        <v>1.6671100000000001</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="M34" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="O34" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="5">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="I35" s="5">
+        <v>127.36667</v>
+      </c>
+      <c r="J35" s="5">
+        <v>0.78332999999999997</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="M35" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="N35" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="O35" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="5">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="I36" s="5">
+        <v>95.333330000000004</v>
+      </c>
+      <c r="J36" s="5">
+        <v>5.5416699999999999</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="M36" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="N36" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="O36" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="5">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="I37" s="5">
+        <v>104.45833</v>
+      </c>
+      <c r="J37" s="5">
+        <v>0.91666999999999998</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="M37" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="O37" s="5" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -1356,140 +3076,657 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{778EF0EF-E388-4B3A-A28D-545309C4A684}">
-  <dimension ref="B2:B26"/>
+  <dimension ref="A2:H38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B26"/>
+    <sheetView topLeftCell="B2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="77.3125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.3125" customWidth="1"/>
+    <col min="4" max="4" width="13.68359375" customWidth="1"/>
+    <col min="5" max="5" width="4.89453125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8" t="s">
+        <v>191</v>
+      </c>
+      <c r="D8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C9" t="s">
+        <v>191</v>
+      </c>
+      <c r="D9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C10" t="s">
+        <v>191</v>
+      </c>
+      <c r="D10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C11" t="s">
+        <v>191</v>
+      </c>
+      <c r="D11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E13" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C14" t="s">
+        <v>191</v>
+      </c>
+      <c r="D14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14" t="s">
+        <v>141</v>
+      </c>
+      <c r="F14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C15" t="s">
+        <v>191</v>
+      </c>
+      <c r="D15" t="s">
+        <v>138</v>
+      </c>
+      <c r="E15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C16" t="s">
+        <v>191</v>
+      </c>
+      <c r="D16" t="s">
+        <v>140</v>
+      </c>
+      <c r="E16" t="s">
+        <v>141</v>
+      </c>
+      <c r="F16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C17" t="s">
+        <v>191</v>
+      </c>
+      <c r="D17" t="s">
+        <v>147</v>
+      </c>
+      <c r="E17" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C18" t="s">
+        <v>191</v>
+      </c>
+      <c r="D18" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C19" t="s">
+        <v>191</v>
+      </c>
+      <c r="D19" t="s">
+        <v>153</v>
+      </c>
+      <c r="E19" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C20" t="s">
+        <v>191</v>
+      </c>
+      <c r="D20" t="s">
+        <v>149</v>
+      </c>
+      <c r="E20" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C21" t="s">
+        <v>191</v>
+      </c>
+      <c r="D21" t="s">
+        <v>151</v>
+      </c>
+      <c r="E21" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C22" t="s">
+        <v>191</v>
+      </c>
+      <c r="D22" t="s">
+        <v>130</v>
+      </c>
+      <c r="E22" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C23" t="s">
+        <v>191</v>
+      </c>
+      <c r="D23" t="s">
+        <v>136</v>
+      </c>
+      <c r="E23" t="s">
+        <v>103</v>
+      </c>
+      <c r="F23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C24" t="s">
+        <v>191</v>
+      </c>
+      <c r="D24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E24" t="s">
+        <v>132</v>
+      </c>
+      <c r="F24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C25" t="s">
+        <v>191</v>
+      </c>
+      <c r="D25" t="s">
+        <v>122</v>
+      </c>
+      <c r="E25" t="s">
+        <v>115</v>
+      </c>
+      <c r="F25" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="C26" t="s">
+        <v>191</v>
+      </c>
+      <c r="D26" t="s">
+        <v>124</v>
+      </c>
+      <c r="E26" t="s">
+        <v>115</v>
+      </c>
+      <c r="F26" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C27" t="s">
+        <v>191</v>
+      </c>
+      <c r="D27" t="s">
+        <v>156</v>
+      </c>
+      <c r="E27" t="s">
+        <v>103</v>
+      </c>
+      <c r="F27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C28" t="s">
+        <v>191</v>
+      </c>
+      <c r="D28" t="s">
+        <v>158</v>
+      </c>
+      <c r="E28" t="s">
+        <v>115</v>
+      </c>
+      <c r="F28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C29" t="s">
+        <v>191</v>
+      </c>
+      <c r="D29" t="s">
+        <v>159</v>
+      </c>
+      <c r="E29" t="s">
+        <v>115</v>
+      </c>
+      <c r="F29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C30" t="s">
+        <v>191</v>
+      </c>
+      <c r="D30" t="s">
+        <v>164</v>
+      </c>
+      <c r="E30" t="s">
+        <v>103</v>
+      </c>
+      <c r="F30" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C31" t="s">
+        <v>191</v>
+      </c>
+      <c r="D31" t="s">
+        <v>168</v>
+      </c>
+      <c r="E31" t="s">
+        <v>132</v>
+      </c>
+      <c r="F31" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C32" t="s">
+        <v>191</v>
+      </c>
+      <c r="D32" t="s">
+        <v>170</v>
+      </c>
+      <c r="E32" t="s">
+        <v>115</v>
+      </c>
+      <c r="F32" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C33" t="s">
+        <v>191</v>
+      </c>
+      <c r="D33" t="s">
+        <v>175</v>
+      </c>
+      <c r="E33" t="s">
+        <v>132</v>
+      </c>
+      <c r="F33" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C34" t="s">
+        <v>191</v>
+      </c>
+      <c r="D34" t="s">
+        <v>179</v>
+      </c>
+      <c r="E34" t="s">
+        <v>132</v>
+      </c>
+      <c r="F34" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C35" t="s">
+        <v>191</v>
+      </c>
+      <c r="D35" t="s">
+        <v>180</v>
+      </c>
+      <c r="E35" t="s">
+        <v>115</v>
+      </c>
+      <c r="F35" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C36" t="s">
+        <v>191</v>
+      </c>
+      <c r="D36" t="s">
+        <v>182</v>
+      </c>
+      <c r="E36" t="s">
+        <v>132</v>
+      </c>
+      <c r="F36" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C37" t="s">
+        <v>191</v>
+      </c>
+      <c r="D37" t="s">
+        <v>184</v>
+      </c>
+      <c r="E37" t="s">
+        <v>115</v>
+      </c>
+      <c r="F37" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C38" t="s">
+        <v>191</v>
+      </c>
+      <c r="D38" t="s">
+        <v>188</v>
+      </c>
+      <c r="E38" t="s">
+        <v>115</v>
+      </c>
+      <c r="F38" t="s">
+        <v>190</v>
+      </c>
+      <c r="G38" t="s">
+        <v>227</v>
+      </c>
+      <c r="H38" t="s">
+        <v>183</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/aqi us data recap 07 12 2023.xlsx
+++ b/aqi us data recap 07 12 2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aldi Andalan\Documents\revou\polution-daily-backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655CAF26-0B1C-4C4D-A43B-C30566D55491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B753EDC-797E-4C5B-940A-CB634EA66C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="0" windowWidth="12150" windowHeight="11760" firstSheet="1" activeTab="1" xr2:uid="{8A0724AA-3800-447E-BE7E-7C1081E679CD}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" firstSheet="1" activeTab="1" xr2:uid="{8A0724AA-3800-447E-BE7E-7C1081E679CD}"/>
   </bookViews>
   <sheets>
     <sheet name="City State Country for URL" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="289">
   <si>
     <t>// City State Country Timestamp(ts) AQIUS(aqius)</t>
   </si>
@@ -717,13 +717,190 @@
   </si>
   <si>
     <t>NewAQIUS(aqius)2</t>
+  </si>
+  <si>
+    <t>https://www.iqair.com/id/indonesia/west-java/bandung</t>
+  </si>
+  <si>
+    <t>Airvisual page</t>
+  </si>
+  <si>
+    <t>https://www.iqair.com/id/indonesia/east-java/surabaya</t>
+  </si>
+  <si>
+    <t>https://www.iqair.com/id/indonesia/west-java/depok</t>
+  </si>
+  <si>
+    <t>https://www.iqair.com/id/indonesia/west-java/bekasi</t>
+  </si>
+  <si>
+    <t>https://www.iqair.com/id/indonesia/south-sulawesi/makassar</t>
+  </si>
+  <si>
+    <t>https://www.iqair.com/id/indonesia/south-sumatra/palembang</t>
+  </si>
+  <si>
+    <t>https://www.iqair.com/id/indonesia/riau-islands/batam</t>
+  </si>
+  <si>
+    <t>https://www.iqair.com/id/indonesia/west-kalimantan/pontianak</t>
+  </si>
+  <si>
+    <t>https://www.iqair.com/id/indonesia/west-java/bogor</t>
+  </si>
+  <si>
+    <t>https://www.iqair.com/id/indonesia/central-java/semarang</t>
+  </si>
+  <si>
+    <t>https://www.iqair.com/id/indonesia/east-java/malang</t>
+  </si>
+  <si>
+    <t>https://www.iqair.com/id/indonesia/southeast-sulawesi/kendari</t>
+  </si>
+  <si>
+    <t>https://www.iqair.com/id/indonesia/west-papua/sorong</t>
+  </si>
+  <si>
+    <t>https://www.iqair.com/id/indonesia/west-papua/manokwari</t>
+  </si>
+  <si>
+    <t>Air Censor Station</t>
+  </si>
+  <si>
+    <t>KLHK, LMJAELANI.com, RespoKare Mask Stations</t>
+  </si>
+  <si>
+    <t>RespoKare Mask Setrasari, TMLEnergy, Setra Duta, jalan Sukawarna Baru A Stations</t>
+  </si>
+  <si>
+    <t>https://www.iqair.com/indonesia/north-sumatra/medan/dlh-medan-02</t>
+  </si>
+  <si>
+    <t>https://www.iqair.com/id/indonesia/jakarta</t>
+  </si>
+  <si>
+    <t>https://www.iqair.com/indonesia/yogyakarta/sleman/sleman-station https://www.iqair.com/id/indonesia/yogyakarta</t>
+  </si>
+  <si>
+    <t>https://www.iqair.com/id/indonesia/bali/denpasar</t>
+  </si>
+  <si>
+    <t>https://www.iqair.com/id/indonesia/east-nusa-tenggaara/kupang</t>
+  </si>
+  <si>
+    <t>https://www.iqair.com/id/indonesia/west-nusa-tenggara/mataram</t>
+  </si>
+  <si>
+    <t>https://www.iqair.com/id/indonesia/riau/pekanbaru</t>
+  </si>
+  <si>
+    <t>https://www.iqair.com/id/indonesia/banten/south-tangerang</t>
+  </si>
+  <si>
+    <t>https://www.iqair.com/id/indonesia/banten/serang</t>
+  </si>
+  <si>
+    <t>https://www.iqair.com/id/indonesia/south-kalimantan/banjarbaru/banjarbaru-s</t>
+  </si>
+  <si>
+    <t>https://www.iqair.com/id/indonesia/east-kalimantan/city-of-balikpapan/balikpapan-sepinggan</t>
+  </si>
+  <si>
+    <t>https://www.iqair.com/id/indonesia/east-kalimantan/samarinda/samarinda-s</t>
+  </si>
+  <si>
+    <t>https://www.iqair.com/id/indonesia/bali/ubud/ubudcare-clinic https://www.iqair.com/id/indonesia/bali/ubud/jalan-raya-mas</t>
+  </si>
+  <si>
+    <t>https://www.iqair.com/id/indonesia/bali/badung/east-java-co-bali</t>
+  </si>
+  <si>
+    <t>https://www.iqair.com/id/indonesia/bali/buleleng</t>
+  </si>
+  <si>
+    <t>https://www.iqair.com/id/indonesia/banten/tangerang</t>
+  </si>
+  <si>
+    <t>https://www.iqair.com/id/indonesia/maluku/ambon</t>
+  </si>
+  <si>
+    <t>https://www.iqair.com/id/indonesia/papua/jayapura</t>
+  </si>
+  <si>
+    <t>https://www.iqair.com/id/indonesia/riau/dumai/dumai-bukit-kapur</t>
+  </si>
+  <si>
+    <t>https://www.iqair.com/id/indonesia/maluku/kota-ternate</t>
+  </si>
+  <si>
+    <t>https://www.iqair.com/id/indonesia/aceh/banda-aceh/aceh-syiah-kuala</t>
+  </si>
+  <si>
+    <t>https://www.iqair.com/id/indonesia/riau-islands/tanjung-pinang/tanjung-pinang-taman-pamedan</t>
+  </si>
+  <si>
+    <t>KLHK</t>
+  </si>
+  <si>
+    <t>BMKG</t>
+  </si>
+  <si>
+    <t>KLHK, BMKG</t>
+  </si>
+  <si>
+    <t>Puretrex Indonesia, Green Movement</t>
+  </si>
+  <si>
+    <t>Plataran Menjangan Resort &amp; Spa</t>
+  </si>
+  <si>
+    <t>East Java &amp; Co</t>
+  </si>
+  <si>
+    <t>Anonim, PurpleAir</t>
+  </si>
+  <si>
+    <t>KLHK, PT Barito Pacific Tbk. (BRPT), RespoKare Mask</t>
+  </si>
+  <si>
+    <t>BMKG, KLHK</t>
+  </si>
+  <si>
+    <t>Pesantren Bayt Al-Quran, Inti Garda Pratam, Pakis, Yerun, Yayasan AHP</t>
+  </si>
+  <si>
+    <t>BMKG, KLHK, Kimteng Coffee Company Stations</t>
+  </si>
+  <si>
+    <t>BMKG, KLHK, Hen San</t>
+  </si>
+  <si>
+    <t>BMKG, KLHK, RespoKare Mask</t>
+  </si>
+  <si>
+    <t>Pontiudar Anonim</t>
+  </si>
+  <si>
+    <t>RespoKare Mask Ruko Metro Square</t>
+  </si>
+  <si>
+    <t>KLHK, BMKG + Other 38 Stations</t>
+  </si>
+  <si>
+    <t>PT. Cakra Anugerah Jaya</t>
+  </si>
+  <si>
+    <t>KLHK + Lumi Clinic, Smart Energy Technology, nasi_goreng_87</t>
+  </si>
+  <si>
+    <t>DLH Medan 02, KLHK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -736,6 +913,14 @@
       <color rgb="FF6A9955"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -773,8 +958,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -785,11 +971,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1308,7 +1495,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23602D85-EE67-4AEF-8112-78B22B43DE7C}">
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
@@ -1323,14 +1510,16 @@
     <col min="8" max="8" width="38.47265625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.68359375" customWidth="1"/>
     <col min="10" max="10" width="10.26171875" customWidth="1"/>
-    <col min="11" max="11" width="35.20703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.83984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5234375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="35.5234375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.3125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.20703125" customWidth="1"/>
+    <col min="12" max="12" width="15.83984375" customWidth="1"/>
+    <col min="13" max="13" width="11.5234375" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="35.5234375" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="15.3125" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="54" customWidth="1"/>
+    <col min="17" max="17" width="86.41796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>217</v>
       </c>
@@ -1376,12 +1565,18 @@
       <c r="O1" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P1" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1423,12 +1618,18 @@
       <c r="O2" s="3" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P2" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -1470,12 +1671,18 @@
       <c r="O3" s="3" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P3" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -1517,12 +1724,18 @@
       <c r="O4" s="3" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P4" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1564,12 +1777,18 @@
       <c r="O5" s="3" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P5" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1611,12 +1830,18 @@
       <c r="O6" s="3" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P6" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -1658,12 +1883,18 @@
       <c r="O7" s="4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P7" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1705,12 +1936,18 @@
       <c r="O8" s="4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P8" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -1752,8 +1989,14 @@
       <c r="O9" s="5" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P9" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1799,8 +2042,14 @@
       <c r="O10" s="5" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P10" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1846,8 +2095,14 @@
       <c r="O11" s="5" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P11" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1893,8 +2148,14 @@
       <c r="O12" s="5" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P12" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1940,8 +2201,14 @@
       <c r="O13" s="5" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P13" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1987,8 +2254,14 @@
       <c r="O14" s="5" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P14" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -2034,8 +2307,14 @@
       <c r="O15" s="5" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P15" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -2081,8 +2360,14 @@
       <c r="O16" s="5" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P16" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -2128,8 +2413,14 @@
       <c r="O17" s="5" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P17" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -2175,8 +2466,14 @@
       <c r="O18" s="5" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P18" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -2222,8 +2519,14 @@
       <c r="O19" s="5" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P19" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -2269,8 +2572,14 @@
       <c r="O20" s="5" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P20" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -2316,8 +2625,14 @@
       <c r="O21" s="5" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P21" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -2363,8 +2678,14 @@
       <c r="O22" s="5" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P22" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -2410,8 +2731,14 @@
       <c r="O23" s="5" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P23" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -2457,8 +2784,14 @@
       <c r="O24" s="5" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P24" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -2504,8 +2837,14 @@
       <c r="O25" s="5" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P25" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -2551,8 +2890,14 @@
       <c r="O26" s="5" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P26" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -2598,8 +2943,14 @@
       <c r="O27" s="5" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P27" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -2645,8 +2996,14 @@
       <c r="O28" s="5" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P28" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -2692,8 +3049,14 @@
       <c r="O29" s="5" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P29" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -2739,8 +3102,14 @@
       <c r="O30" s="5" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P30" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -2786,8 +3155,14 @@
       <c r="O31" s="5" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P31" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -2833,8 +3208,14 @@
       <c r="O32" s="5" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P32" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -2880,8 +3261,14 @@
       <c r="O33" s="5" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P33" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -2927,8 +3314,14 @@
       <c r="O34" s="5" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P34" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -2974,8 +3367,14 @@
       <c r="O35" s="5" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P35" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -3021,8 +3420,14 @@
       <c r="O36" s="5" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P36" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -3068,8 +3473,17 @@
       <c r="O37" s="5" t="s">
         <v>183</v>
       </c>
+      <c r="P37" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>270</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="P3" r:id="rId1" xr:uid="{11219FA1-B4DB-4556-A9EA-27B1B66B97F9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
